--- a/Prom_import/Win32/Debug/export-cutted.xlsx
+++ b/Prom_import/Win32/Debug/export-cutted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\remonline_prom_ua\Prom_import\Win32\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{577174F4-BA6D-4D7B-9F3C-4C1C430EA05A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06373FD4-379A-4597-8AFF-D9F0BFD089AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Export Products Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Export Groups Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="403">
   <si>
     <t>Номер_группы</t>
   </si>
@@ -2190,6 +2190,24 @@
   <si>
     <t>Значение_Характеристики</t>
   </si>
+  <si>
+    <t>Состояние 3</t>
+  </si>
+  <si>
+    <t>Состояние1</t>
+  </si>
+  <si>
+    <t>Вид запчасти 2</t>
+  </si>
+  <si>
+    <t>Состояние 4</t>
+  </si>
+  <si>
+    <t>Новое 4</t>
+  </si>
+  <si>
+    <t>Новое 3</t>
+  </si>
 </sst>
 </file>
 
@@ -2566,12 +2584,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2723,6 +2752,9 @@
       <c r="H2" t="s">
         <v>62</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
         <v>364</v>
       </c>
@@ -2747,6 +2779,15 @@
       <c r="Q2" t="s">
         <v>365</v>
       </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
         <v>793536788</v>
       </c>
@@ -2756,14 +2797,56 @@
       <c r="W2">
         <v>142710</v>
       </c>
-      <c r="AA2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>6</v>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
       </c>
       <c r="AD2" t="s">
         <v>366</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL2">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO2">
+        <v>4</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -2791,6 +2874,9 @@
       <c r="H3" t="s">
         <v>62</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
@@ -2829,9 +2915,6 @@
       </c>
       <c r="Z3" t="s">
         <v>67</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>6</v>
       </c>
       <c r="AC3" t="s">
         <v>6</v>
@@ -2880,6 +2963,9 @@
       <c r="H4" t="s">
         <v>62</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4" t="s">
         <v>295</v>
       </c>
@@ -2912,9 +2998,6 @@
       </c>
       <c r="W4">
         <v>29</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>6</v>
       </c>
       <c r="AC4" t="s">
         <v>6</v>
@@ -2948,6 +3031,9 @@
       <c r="H5" t="s">
         <v>62</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="J5" t="s">
         <v>6</v>
       </c>
@@ -2983,9 +3069,6 @@
       </c>
       <c r="Z5" t="s">
         <v>78</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>6</v>
       </c>
       <c r="AC5" t="s">
         <v>6</v>
@@ -3034,6 +3117,9 @@
       <c r="H6" t="s">
         <v>62</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6" t="s">
         <v>292</v>
       </c>
@@ -3066,9 +3152,6 @@
       </c>
       <c r="W6">
         <v>29</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>6</v>
       </c>
       <c r="AC6" t="s">
         <v>6</v>
@@ -3102,6 +3185,9 @@
       <c r="H7" t="s">
         <v>62</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7" t="s">
         <v>6</v>
       </c>
@@ -3137,9 +3223,6 @@
       </c>
       <c r="Y7" t="s">
         <v>85</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>6</v>
       </c>
       <c r="AC7" t="s">
         <v>6</v>
@@ -3188,6 +3271,9 @@
       <c r="H8" t="s">
         <v>62</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8" t="s">
         <v>295</v>
       </c>
@@ -3220,9 +3306,6 @@
       </c>
       <c r="W8">
         <v>29</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>6</v>
       </c>
       <c r="AC8" t="s">
         <v>6</v>
@@ -3256,6 +3339,9 @@
       <c r="H9" t="s">
         <v>62</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -3291,9 +3377,6 @@
       </c>
       <c r="Y9" t="s">
         <v>92</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>6</v>
       </c>
       <c r="AC9" t="s">
         <v>6</v>
@@ -3342,6 +3425,9 @@
       <c r="H10" t="s">
         <v>62</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="J10" t="s">
         <v>335</v>
       </c>
@@ -3374,9 +3460,6 @@
       </c>
       <c r="W10">
         <v>29</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>6</v>
       </c>
       <c r="AC10" t="s">
         <v>6</v>
@@ -3410,6 +3493,9 @@
       <c r="H11" t="s">
         <v>62</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11" t="s">
         <v>6</v>
       </c>
@@ -3445,9 +3531,6 @@
       </c>
       <c r="Y11" t="s">
         <v>92</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>6</v>
       </c>
       <c r="AC11" t="s">
         <v>6</v>
@@ -3496,6 +3579,9 @@
       <c r="H12" t="s">
         <v>62</v>
       </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="J12" t="s">
         <v>343</v>
       </c>
@@ -3528,9 +3614,6 @@
       </c>
       <c r="W12">
         <v>29</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>6</v>
       </c>
       <c r="AC12" t="s">
         <v>6</v>
@@ -3564,6 +3647,9 @@
       <c r="H13" t="s">
         <v>62</v>
       </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
@@ -3599,9 +3685,6 @@
       </c>
       <c r="Y13" t="s">
         <v>105</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>6</v>
       </c>
       <c r="AC13" t="s">
         <v>6</v>
@@ -3650,6 +3733,9 @@
       <c r="H14" t="s">
         <v>62</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14" t="s">
         <v>159</v>
       </c>
@@ -3682,9 +3768,6 @@
       </c>
       <c r="W14">
         <v>29</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>6</v>
       </c>
       <c r="AC14" t="s">
         <v>6</v>
@@ -3718,6 +3801,9 @@
       <c r="H15" t="s">
         <v>62</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15" t="s">
         <v>6</v>
       </c>
@@ -3753,9 +3839,6 @@
       </c>
       <c r="Y15" t="s">
         <v>92</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>6</v>
       </c>
       <c r="AC15" t="s">
         <v>6</v>
@@ -3807,6 +3890,9 @@
       <c r="H16" t="s">
         <v>62</v>
       </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
       <c r="J16" t="s">
         <v>6</v>
       </c>
@@ -3842,9 +3928,6 @@
       </c>
       <c r="Y16" t="s">
         <v>107</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>6</v>
       </c>
       <c r="AC16" t="s">
         <v>6</v>
@@ -3893,6 +3976,9 @@
       <c r="H17" t="s">
         <v>62</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17" t="s">
         <v>159</v>
       </c>
@@ -3925,9 +4011,6 @@
       </c>
       <c r="W17">
         <v>29</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>6</v>
       </c>
       <c r="AC17" t="s">
         <v>6</v>
@@ -3961,6 +4044,9 @@
       <c r="H18" t="s">
         <v>62</v>
       </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="J18" t="s">
         <v>6</v>
       </c>
@@ -3992,9 +4078,6 @@
         <v>64403</v>
       </c>
       <c r="X18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA18" t="s">
         <v>6</v>
       </c>
       <c r="AC18" t="s">
@@ -4044,6 +4127,9 @@
       <c r="H19" t="s">
         <v>62</v>
       </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="J19" t="s">
         <v>355</v>
       </c>
@@ -4076,9 +4162,6 @@
       </c>
       <c r="W19">
         <v>29</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>6</v>
       </c>
       <c r="AC19" t="s">
         <v>6</v>
@@ -4112,6 +4195,9 @@
       <c r="H20" t="s">
         <v>62</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20" t="s">
         <v>6</v>
       </c>
@@ -4150,9 +4236,6 @@
       </c>
       <c r="Z20" t="s">
         <v>67</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>6</v>
       </c>
       <c r="AC20" t="s">
         <v>6</v>
@@ -4201,6 +4284,9 @@
       <c r="H21" t="s">
         <v>62</v>
       </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21" t="s">
         <v>285</v>
       </c>
@@ -4233,9 +4319,6 @@
       </c>
       <c r="W21">
         <v>29</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>6</v>
       </c>
       <c r="AC21" t="s">
         <v>6</v>
@@ -4269,6 +4352,9 @@
       <c r="H22" t="s">
         <v>62</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22" t="s">
         <v>6</v>
       </c>
@@ -4304,9 +4390,6 @@
       </c>
       <c r="Y22" t="s">
         <v>107</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>6</v>
       </c>
       <c r="AC22" t="s">
         <v>6</v>
@@ -4355,6 +4438,9 @@
       <c r="H23" t="s">
         <v>62</v>
       </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
       <c r="J23" t="s">
         <v>323</v>
       </c>
@@ -4387,9 +4473,6 @@
       </c>
       <c r="W23">
         <v>29</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>6</v>
       </c>
       <c r="AC23" t="s">
         <v>6</v>
@@ -4423,6 +4506,9 @@
       <c r="H24" t="s">
         <v>62</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="J24" t="s">
         <v>6</v>
       </c>
@@ -4458,9 +4544,6 @@
       </c>
       <c r="Y24" t="s">
         <v>66</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>6</v>
       </c>
       <c r="AC24" t="s">
         <v>6</v>
@@ -4509,6 +4592,9 @@
       <c r="H25" t="s">
         <v>62</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25" t="s">
         <v>298</v>
       </c>
@@ -4541,9 +4627,6 @@
       </c>
       <c r="W25">
         <v>420816</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>6</v>
       </c>
       <c r="AC25" t="s">
         <v>6</v>
@@ -4577,6 +4660,9 @@
       <c r="H26" t="s">
         <v>62</v>
       </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="J26" t="s">
         <v>6</v>
       </c>
@@ -4612,9 +4698,6 @@
       </c>
       <c r="Y26" t="s">
         <v>92</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>6</v>
       </c>
       <c r="AC26" t="s">
         <v>6</v>
@@ -4663,6 +4746,9 @@
       <c r="H27" t="s">
         <v>62</v>
       </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
       <c r="J27" t="s">
         <v>335</v>
       </c>
@@ -4695,9 +4781,6 @@
       </c>
       <c r="W27">
         <v>29</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>6</v>
       </c>
       <c r="AC27" t="s">
         <v>6</v>
@@ -4731,6 +4814,9 @@
       <c r="H28" t="s">
         <v>62</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28" t="s">
         <v>6</v>
       </c>
@@ -4769,9 +4855,6 @@
       </c>
       <c r="Z28" t="s">
         <v>67</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>6</v>
       </c>
       <c r="AC28" t="s">
         <v>6</v>
@@ -4820,6 +4903,9 @@
       <c r="H29" t="s">
         <v>62</v>
       </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29" t="s">
         <v>159</v>
       </c>
@@ -4852,9 +4938,6 @@
       </c>
       <c r="W29">
         <v>29</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>6</v>
       </c>
       <c r="AC29" t="s">
         <v>6</v>
@@ -4888,6 +4971,9 @@
       <c r="H30" t="s">
         <v>62</v>
       </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
       <c r="J30" t="s">
         <v>6</v>
       </c>
@@ -4923,9 +5009,6 @@
       </c>
       <c r="Y30" t="s">
         <v>85</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>6</v>
       </c>
       <c r="AC30" t="s">
         <v>6</v>
@@ -4974,6 +5057,9 @@
       <c r="H31" t="s">
         <v>62</v>
       </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
       <c r="J31" t="s">
         <v>326</v>
       </c>
@@ -5006,9 +5092,6 @@
       </c>
       <c r="W31">
         <v>29</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>6</v>
       </c>
       <c r="AC31" t="s">
         <v>6</v>
@@ -5042,6 +5125,9 @@
       <c r="H32" t="s">
         <v>62</v>
       </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32" t="s">
         <v>6</v>
       </c>
@@ -5077,9 +5163,6 @@
       </c>
       <c r="Y32" t="s">
         <v>66</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>6</v>
       </c>
       <c r="AC32" t="s">
         <v>6</v>
@@ -5128,6 +5211,9 @@
       <c r="H33" t="s">
         <v>62</v>
       </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
       <c r="J33" t="s">
         <v>352</v>
       </c>
@@ -5160,9 +5246,6 @@
       </c>
       <c r="W33">
         <v>29</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>6</v>
       </c>
       <c r="AC33" t="s">
         <v>6</v>
@@ -5196,6 +5279,9 @@
       <c r="H34" t="s">
         <v>62</v>
       </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
       <c r="J34" t="s">
         <v>6</v>
       </c>
@@ -5231,9 +5317,6 @@
       </c>
       <c r="Y34" t="s">
         <v>92</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>6</v>
       </c>
       <c r="AC34" t="s">
         <v>6</v>
@@ -5282,6 +5365,9 @@
       <c r="H35" t="s">
         <v>62</v>
       </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
       <c r="J35" t="s">
         <v>279</v>
       </c>
@@ -5314,9 +5400,6 @@
       </c>
       <c r="W35">
         <v>29</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>6</v>
       </c>
       <c r="AC35" t="s">
         <v>6</v>
@@ -5350,6 +5433,9 @@
       <c r="H36" t="s">
         <v>62</v>
       </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
       <c r="J36" t="s">
         <v>6</v>
       </c>
@@ -5385,9 +5471,6 @@
       </c>
       <c r="Y36" t="s">
         <v>183</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>6</v>
       </c>
       <c r="AC36" t="s">
         <v>6</v>
@@ -5436,6 +5519,9 @@
       <c r="H37" t="s">
         <v>62</v>
       </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
       <c r="J37" t="s">
         <v>352</v>
       </c>
@@ -5468,9 +5554,6 @@
       </c>
       <c r="W37">
         <v>29</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>6</v>
       </c>
       <c r="AC37" t="s">
         <v>6</v>
@@ -5504,6 +5587,9 @@
       <c r="H38" t="s">
         <v>62</v>
       </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
       <c r="J38" t="s">
         <v>6</v>
       </c>
@@ -5539,9 +5625,6 @@
       </c>
       <c r="Y38" t="s">
         <v>107</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>6</v>
       </c>
       <c r="AC38" t="s">
         <v>6</v>
@@ -5590,6 +5673,9 @@
       <c r="H39" t="s">
         <v>62</v>
       </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
       <c r="J39" t="s">
         <v>307</v>
       </c>
@@ -5622,9 +5708,6 @@
       </c>
       <c r="W39">
         <v>29</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>6</v>
       </c>
       <c r="AC39" t="s">
         <v>6</v>
@@ -5658,6 +5741,9 @@
       <c r="H40" t="s">
         <v>62</v>
       </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
       <c r="J40" t="s">
         <v>6</v>
       </c>
@@ -5693,9 +5779,6 @@
       </c>
       <c r="Y40" t="s">
         <v>195</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>6</v>
       </c>
       <c r="AC40" t="s">
         <v>6</v>
@@ -5744,6 +5827,9 @@
       <c r="H41" t="s">
         <v>62</v>
       </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
       <c r="J41" t="s">
         <v>273</v>
       </c>
@@ -5776,9 +5862,6 @@
       </c>
       <c r="W41">
         <v>29</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>6</v>
       </c>
       <c r="AC41" t="s">
         <v>6</v>
@@ -5812,6 +5895,9 @@
       <c r="H42" t="s">
         <v>62</v>
       </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
       <c r="J42" t="s">
         <v>6</v>
       </c>
@@ -5847,9 +5933,6 @@
       </c>
       <c r="Y42" t="s">
         <v>107</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>6</v>
       </c>
       <c r="AC42" t="s">
         <v>6</v>
@@ -5898,6 +5981,9 @@
       <c r="H43" t="s">
         <v>62</v>
       </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
       <c r="J43" t="s">
         <v>316</v>
       </c>
@@ -5930,9 +6016,6 @@
       </c>
       <c r="W43">
         <v>29</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>6</v>
       </c>
       <c r="AC43" t="s">
         <v>6</v>
@@ -5966,6 +6049,9 @@
       <c r="H44" t="s">
         <v>62</v>
       </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
       <c r="J44" t="s">
         <v>6</v>
       </c>
@@ -6001,9 +6087,6 @@
       </c>
       <c r="Y44" t="s">
         <v>66</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>6</v>
       </c>
       <c r="AC44" t="s">
         <v>6</v>
@@ -6052,6 +6135,9 @@
       <c r="H45" t="s">
         <v>62</v>
       </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
       <c r="J45" t="s">
         <v>276</v>
       </c>
@@ -6084,9 +6170,6 @@
       </c>
       <c r="W45">
         <v>29</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>6</v>
       </c>
       <c r="AC45" t="s">
         <v>6</v>
@@ -6120,6 +6203,9 @@
       <c r="H46" t="s">
         <v>62</v>
       </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
       <c r="J46" t="s">
         <v>6</v>
       </c>
@@ -6151,9 +6237,6 @@
         <v>64403</v>
       </c>
       <c r="X46" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA46" t="s">
         <v>6</v>
       </c>
       <c r="AC46" t="s">
@@ -6185,6 +6268,9 @@
       <c r="H47" t="s">
         <v>62</v>
       </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
       <c r="J47" t="s">
         <v>285</v>
       </c>
@@ -6217,9 +6303,6 @@
       </c>
       <c r="W47">
         <v>29</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>6</v>
       </c>
       <c r="AC47" t="s">
         <v>6</v>
@@ -6253,6 +6336,9 @@
       <c r="H48" t="s">
         <v>62</v>
       </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
       <c r="J48" t="s">
         <v>6</v>
       </c>
@@ -6288,9 +6374,6 @@
       </c>
       <c r="Y48" t="s">
         <v>92</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>6</v>
       </c>
       <c r="AC48" t="s">
         <v>6</v>
@@ -6339,6 +6422,9 @@
       <c r="H49" t="s">
         <v>62</v>
       </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
       <c r="J49" t="s">
         <v>340</v>
       </c>
@@ -6371,9 +6457,6 @@
       </c>
       <c r="W49">
         <v>29</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>6</v>
       </c>
       <c r="AC49" t="s">
         <v>6</v>
@@ -6407,6 +6490,9 @@
       <c r="H50" t="s">
         <v>62</v>
       </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
       <c r="J50" t="s">
         <v>6</v>
       </c>
@@ -6438,9 +6524,6 @@
         <v>64403</v>
       </c>
       <c r="X50" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA50" t="s">
         <v>6</v>
       </c>
       <c r="AC50" t="s">
@@ -6472,6 +6555,9 @@
       <c r="H51" t="s">
         <v>62</v>
       </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
       <c r="J51" t="s">
         <v>310</v>
       </c>
@@ -6504,9 +6590,6 @@
       </c>
       <c r="W51">
         <v>29</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>6</v>
       </c>
       <c r="AC51" t="s">
         <v>6</v>
@@ -6540,6 +6623,9 @@
       <c r="H52" t="s">
         <v>62</v>
       </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
       <c r="J52" t="s">
         <v>6</v>
       </c>
@@ -6578,9 +6664,6 @@
       </c>
       <c r="Z52" t="s">
         <v>67</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>6</v>
       </c>
       <c r="AC52" t="s">
         <v>6</v>
@@ -6629,6 +6712,9 @@
       <c r="H53" t="s">
         <v>62</v>
       </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
       <c r="J53" t="s">
         <v>313</v>
       </c>
@@ -6661,9 +6747,6 @@
       </c>
       <c r="W53">
         <v>29</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>6</v>
       </c>
       <c r="AC53" t="s">
         <v>6</v>
@@ -6697,6 +6780,9 @@
       <c r="H54" t="s">
         <v>62</v>
       </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
       <c r="J54" t="s">
         <v>6</v>
       </c>
@@ -6728,9 +6814,6 @@
         <v>64403</v>
       </c>
       <c r="X54" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA54" t="s">
         <v>6</v>
       </c>
       <c r="AC54" t="s">
@@ -6762,6 +6845,9 @@
       <c r="H55" t="s">
         <v>62</v>
       </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
       <c r="J55" t="s">
         <v>349</v>
       </c>
@@ -6794,9 +6880,6 @@
       </c>
       <c r="W55">
         <v>29</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>6</v>
       </c>
       <c r="AC55" t="s">
         <v>6</v>
@@ -6830,6 +6913,9 @@
       <c r="H56" t="s">
         <v>62</v>
       </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
       <c r="J56" t="s">
         <v>6</v>
       </c>
@@ -6865,9 +6951,6 @@
       </c>
       <c r="Y56" t="s">
         <v>244</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>6</v>
       </c>
       <c r="AC56" t="s">
         <v>6</v>
@@ -6916,6 +6999,9 @@
       <c r="H57" t="s">
         <v>62</v>
       </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
       <c r="J57" t="s">
         <v>285</v>
       </c>
@@ -6948,9 +7034,6 @@
       </c>
       <c r="W57">
         <v>29</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>6</v>
       </c>
       <c r="AC57" t="s">
         <v>6</v>
@@ -6984,6 +7067,9 @@
       <c r="H58" t="s">
         <v>62</v>
       </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
       <c r="J58" t="s">
         <v>6</v>
       </c>
@@ -7019,9 +7105,6 @@
       </c>
       <c r="Y58" t="s">
         <v>110</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>6</v>
       </c>
       <c r="AC58" t="s">
         <v>6</v>
@@ -7070,6 +7153,9 @@
       <c r="H59" t="s">
         <v>62</v>
       </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
       <c r="J59" t="s">
         <v>282</v>
       </c>
@@ -7102,9 +7188,6 @@
       </c>
       <c r="W59">
         <v>29</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>6</v>
       </c>
       <c r="AC59" t="s">
         <v>6</v>
@@ -7138,6 +7221,9 @@
       <c r="H60" t="s">
         <v>62</v>
       </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
       <c r="J60" t="s">
         <v>6</v>
       </c>
@@ -7173,9 +7259,6 @@
       </c>
       <c r="Z60" t="s">
         <v>67</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>6</v>
       </c>
       <c r="AC60" t="s">
         <v>6</v>
@@ -7224,6 +7307,9 @@
       <c r="H61" t="s">
         <v>62</v>
       </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
       <c r="J61" t="s">
         <v>329</v>
       </c>
@@ -7256,9 +7342,6 @@
       </c>
       <c r="W61">
         <v>29</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>6</v>
       </c>
       <c r="AC61" t="s">
         <v>6</v>
@@ -7292,6 +7375,9 @@
       <c r="H62" t="s">
         <v>62</v>
       </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
       <c r="J62" t="s">
         <v>6</v>
       </c>
@@ -7327,9 +7413,6 @@
       </c>
       <c r="Y62" t="s">
         <v>92</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>6</v>
       </c>
       <c r="AC62" t="s">
         <v>6</v>
@@ -7378,6 +7461,9 @@
       <c r="H63" t="s">
         <v>62</v>
       </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
       <c r="J63" t="s">
         <v>326</v>
       </c>
@@ -7410,9 +7496,6 @@
       </c>
       <c r="W63">
         <v>29</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>6</v>
       </c>
       <c r="AC63" t="s">
         <v>6</v>
@@ -7446,6 +7529,9 @@
       <c r="H64" t="s">
         <v>62</v>
       </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
       <c r="J64" t="s">
         <v>6</v>
       </c>
@@ -7481,9 +7567,6 @@
       </c>
       <c r="Y64" t="s">
         <v>107</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>6</v>
       </c>
       <c r="AC64" t="s">
         <v>6</v>
